--- a/data/41467_2020_14538_MOESM5_ESM.xlsx
+++ b/data/41467_2020_14538_MOESM5_ESM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5B442-9EE1-443B-AC90-4F57F2EBBA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D561CB-1AF1-41BD-BCDD-D6FD114101BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="130">
   <si>
     <t>PBGl</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>5 tier rank</t>
   </si>
   <si>
     <t>isophthalic PET</t>
@@ -1041,11 +1038,7 @@
     <t>abiotic or biotic conditions</t>
   </si>
   <si>
-    <t>bio_rank_num5</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>bio_rank_num3</t>
+    <t>5 tier rank</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1487,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW113"/>
+  <dimension ref="A1:AU113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="BC7" sqref="BC7"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1530,14 +1523,12 @@
     <col min="44" max="44" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="26.69921875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:47" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1555,31 +1546,31 @@
         <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>54</v>
@@ -1609,10 +1600,10 @@
         <v>62</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>60</v>
@@ -1621,70 +1612,64 @@
         <v>47</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AJ1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AN1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="AR1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AS1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AT1" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="AU1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -1823,17 +1808,11 @@
       <c r="AT2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW2" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1972,17 +1951,11 @@
       <c r="AT3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU3" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AU3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW3" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2121,17 +2094,11 @@
       <c r="AT4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU4" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AU4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW4" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2270,17 +2237,11 @@
       <c r="AT5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU5" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV5" s="6" t="s">
+      <c r="AU5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW5" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -2419,17 +2380,11 @@
       <c r="AT6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV6" s="6" t="s">
+      <c r="AU6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW6" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -2568,17 +2523,11 @@
       <c r="AT7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU7" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV7" s="6" t="s">
+      <c r="AU7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW7" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -2717,17 +2666,11 @@
       <c r="AT8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU8" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV8" s="6" t="s">
+      <c r="AU8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW8" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -2866,17 +2809,11 @@
       <c r="AT9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU9" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV9" s="6" t="s">
+      <c r="AU9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW9" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3015,17 +2952,11 @@
       <c r="AT10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="6" t="s">
+      <c r="AU10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW10" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3164,17 +3095,11 @@
       <c r="AT11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU11" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV11" s="6" t="s">
+      <c r="AU11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW11" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3313,17 +3238,11 @@
       <c r="AT12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU12" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV12" s="6" t="s">
+      <c r="AU12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW12" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3462,17 +3381,11 @@
       <c r="AT13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU13" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV13" s="6" t="s">
+      <c r="AU13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW13" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -3611,17 +3524,11 @@
       <c r="AT14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU14" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV14" s="6" t="s">
+      <c r="AU14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW14" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -3760,17 +3667,11 @@
       <c r="AT15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU15" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV15" s="6" t="s">
+      <c r="AU15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW15" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -3909,17 +3810,11 @@
       <c r="AT16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU16" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV16" s="6" t="s">
+      <c r="AU16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW16" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -4058,17 +3953,11 @@
       <c r="AT17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU17" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV17" s="6" t="s">
+      <c r="AU17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW17" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -4207,17 +4096,11 @@
       <c r="AT18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU18" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV18" s="6" t="s">
+      <c r="AU18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW18" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -4356,17 +4239,11 @@
       <c r="AT19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU19" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV19" s="6" t="s">
+      <c r="AU19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW19" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -4505,17 +4382,11 @@
       <c r="AT20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="6" t="s">
+      <c r="AU20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW20" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -4654,17 +4525,11 @@
       <c r="AT21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU21" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV21" s="6" t="s">
+      <c r="AU21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW21" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -4803,17 +4668,11 @@
       <c r="AT22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU22" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV22" s="6" t="s">
+      <c r="AU22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW22" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -4952,17 +4811,11 @@
       <c r="AT23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU23" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV23" s="6" t="s">
+      <c r="AU23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW23" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -5101,17 +4954,11 @@
       <c r="AT24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="6" t="s">
+      <c r="AU24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW24" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -5250,17 +5097,11 @@
       <c r="AT25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU25" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV25" s="6" t="s">
+      <c r="AU25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW25" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -5399,17 +5240,11 @@
       <c r="AT26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU26" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV26" s="6" t="s">
+      <c r="AU26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW26" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -5548,17 +5383,11 @@
       <c r="AT27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU27" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV27" s="6" t="s">
+      <c r="AU27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW27" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -5697,17 +5526,11 @@
       <c r="AT28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU28" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV28" s="6" t="s">
+      <c r="AU28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW28" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -5846,17 +5669,11 @@
       <c r="AT29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU29" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV29" s="6" t="s">
+      <c r="AU29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW29" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -5995,17 +5812,11 @@
       <c r="AT30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU30" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV30" s="6" t="s">
+      <c r="AU30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW30" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -6144,17 +5955,11 @@
       <c r="AT31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU31" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV31" s="6" t="s">
+      <c r="AU31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW31" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -6293,17 +6098,11 @@
       <c r="AT32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU32" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV32" s="6" t="s">
+      <c r="AU32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW32" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -6442,17 +6241,11 @@
       <c r="AT33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU33" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV33" s="6" t="s">
+      <c r="AU33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW33" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -6591,17 +6384,11 @@
       <c r="AT34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU34" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV34" s="6" t="s">
+      <c r="AU34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW34" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -6740,17 +6527,11 @@
       <c r="AT35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU35" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV35" s="6" t="s">
+      <c r="AU35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW35" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -6889,17 +6670,11 @@
       <c r="AT36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU36" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV36" s="6" t="s">
+      <c r="AU36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW36" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -7038,17 +6813,11 @@
       <c r="AT37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU37" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV37" s="6" t="s">
+      <c r="AU37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW37" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -7187,17 +6956,11 @@
       <c r="AT38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU38" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV38" s="6" t="s">
+      <c r="AU38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW38" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -7336,17 +7099,11 @@
       <c r="AT39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU39" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV39" s="6" t="s">
+      <c r="AU39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW39" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -7485,17 +7242,11 @@
       <c r="AT40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU40" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV40" s="6" t="s">
+      <c r="AU40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW40" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -7634,17 +7385,11 @@
       <c r="AT41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU41" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV41" s="6" t="s">
+      <c r="AU41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW41" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -7783,17 +7528,11 @@
       <c r="AT42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU42" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV42" s="6" t="s">
+      <c r="AU42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW42" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -7932,17 +7671,11 @@
       <c r="AT43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU43" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV43" s="6" t="s">
+      <c r="AU43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW43" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -8081,17 +7814,11 @@
       <c r="AT44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU44" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV44" s="6" t="s">
+      <c r="AU44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW44" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -8230,17 +7957,11 @@
       <c r="AT45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU45" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV45" s="6" t="s">
+      <c r="AU45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW45" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -8379,17 +8100,11 @@
       <c r="AT46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU46" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV46" s="6" t="s">
+      <c r="AU46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW46" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -8528,17 +8243,11 @@
       <c r="AT47" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU47" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV47" s="6" t="s">
+      <c r="AU47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW47" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -8677,17 +8386,11 @@
       <c r="AT48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU48" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV48" s="6" t="s">
+      <c r="AU48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW48" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -8826,17 +8529,11 @@
       <c r="AT49" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU49" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV49" s="6" t="s">
+      <c r="AU49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW49" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -8975,17 +8672,11 @@
       <c r="AT50" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU50" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV50" s="6" t="s">
+      <c r="AU50" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW50" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -9124,17 +8815,11 @@
       <c r="AT51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU51" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV51" s="6" t="s">
+      <c r="AU51" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW51" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -9273,17 +8958,11 @@
       <c r="AT52" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU52" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV52" s="6" t="s">
+      <c r="AU52" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW52" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -9422,17 +9101,11 @@
       <c r="AT53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU53" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV53" s="6" t="s">
+      <c r="AU53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW53" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -9571,17 +9244,11 @@
       <c r="AT54" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU54" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV54" s="6" t="s">
+      <c r="AU54" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW54" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -9720,17 +9387,11 @@
       <c r="AT55" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU55" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV55" s="6" t="s">
+      <c r="AU55" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW55" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -9869,17 +9530,11 @@
       <c r="AT56" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU56" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV56" s="6" t="s">
+      <c r="AU56" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW56" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -10018,17 +9673,11 @@
       <c r="AT57" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU57" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV57" s="6" t="s">
+      <c r="AU57" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW57" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -10167,17 +9816,11 @@
       <c r="AT58" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU58" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV58" s="6" t="s">
+      <c r="AU58" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW58" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -10316,17 +9959,11 @@
       <c r="AT59" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU59" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV59" s="6" t="s">
+      <c r="AU59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW59" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -10465,17 +10102,11 @@
       <c r="AT60" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU60" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV60" s="6" t="s">
+      <c r="AU60" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW60" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -10614,17 +10245,11 @@
       <c r="AT61" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU61" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV61" s="6" t="s">
+      <c r="AU61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW61" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -10763,17 +10388,11 @@
       <c r="AT62" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU62" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV62" s="6" t="s">
+      <c r="AU62" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW62" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -10912,17 +10531,11 @@
       <c r="AT63" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU63" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV63" s="6" t="s">
+      <c r="AU63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW63" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -11061,17 +10674,11 @@
       <c r="AT64" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU64" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV64" s="6" t="s">
+      <c r="AU64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW64" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -11210,17 +10817,11 @@
       <c r="AT65" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU65" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV65" s="6" t="s">
+      <c r="AU65" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW65" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -11359,17 +10960,11 @@
       <c r="AT66" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU66" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV66" s="6" t="s">
+      <c r="AU66" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW66" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -11508,17 +11103,11 @@
       <c r="AT67" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU67" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV67" s="6" t="s">
+      <c r="AU67" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW67" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -11657,17 +11246,11 @@
       <c r="AT68" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU68" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV68" s="6" t="s">
+      <c r="AU68" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW68" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -11806,17 +11389,11 @@
       <c r="AT69" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU69" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV69" s="6" t="s">
+      <c r="AU69" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW69" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -11955,17 +11532,11 @@
       <c r="AT70" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU70" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV70" s="6" t="s">
+      <c r="AU70" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW70" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -12104,17 +11675,11 @@
       <c r="AT71" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU71" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV71" s="6" t="s">
+      <c r="AU71" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW71" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -12253,17 +11818,11 @@
       <c r="AT72" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU72" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV72" s="6" t="s">
+      <c r="AU72" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW72" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -12402,17 +11961,11 @@
       <c r="AT73" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU73" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV73" s="6" t="s">
+      <c r="AU73" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW73" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -12551,17 +12104,11 @@
       <c r="AT74" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU74" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV74" s="6" t="s">
+      <c r="AU74" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW74" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -12700,22 +12247,16 @@
       <c r="AT75" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU75" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV75" s="6" t="s">
+      <c r="AU75" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW75" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>19</v>
@@ -12849,17 +12390,11 @@
       <c r="AT76" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU76" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV76" s="6" t="s">
+      <c r="AU76" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW76" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -12998,17 +12533,11 @@
       <c r="AT77" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU77" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV77" s="6" t="s">
+      <c r="AU77" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW77" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -13147,17 +12676,11 @@
       <c r="AT78" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU78" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV78" s="6" t="s">
+      <c r="AU78" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW78" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -13296,17 +12819,11 @@
       <c r="AT79" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU79" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV79" s="6" t="s">
+      <c r="AU79" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW79" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -13445,17 +12962,11 @@
       <c r="AT80" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU80" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV80" s="6" t="s">
+      <c r="AU80" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW80" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -13594,17 +13105,11 @@
       <c r="AT81" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU81" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV81" s="6" t="s">
+      <c r="AU81" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW81" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -13743,17 +13248,11 @@
       <c r="AT82" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AU82" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV82" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW82" s="6" t="s">
+      <c r="AU82" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -13892,17 +13391,11 @@
       <c r="AT83" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU83" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV83" s="6" t="s">
+      <c r="AU83" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW83" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -14041,17 +13534,11 @@
       <c r="AT84" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU84" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV84" s="6" t="s">
+      <c r="AU84" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW84" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -14190,17 +13677,11 @@
       <c r="AT85" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU85" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV85" s="6" t="s">
+      <c r="AU85" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW85" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -14339,17 +13820,11 @@
       <c r="AT86" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU86" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV86" s="6" t="s">
+      <c r="AU86" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW86" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -14488,17 +13963,11 @@
       <c r="AT87" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU87" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV87" s="6" t="s">
+      <c r="AU87" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW87" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -14637,17 +14106,11 @@
       <c r="AT88" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU88" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV88" s="6" t="s">
+      <c r="AU88" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW88" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -14786,17 +14249,11 @@
       <c r="AT89" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU89" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV89" s="6" t="s">
+      <c r="AU89" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW89" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -14935,17 +14392,11 @@
       <c r="AT90" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU90" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV90" s="6" t="s">
+      <c r="AU90" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW90" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -14953,7 +14404,7 @@
         <v>49</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>42</v>
@@ -15084,17 +14535,11 @@
       <c r="AT91" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU91" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV91" s="6" t="s">
+      <c r="AU91" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW91" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -15102,7 +14547,7 @@
         <v>49</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>42</v>
@@ -15233,17 +14678,11 @@
       <c r="AT92" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU92" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV92" s="6" t="s">
+      <c r="AU92" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW92" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -15251,7 +14690,7 @@
         <v>49</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>42</v>
@@ -15382,17 +14821,11 @@
       <c r="AT93" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU93" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV93" s="6" t="s">
+      <c r="AU93" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW93" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -15400,7 +14833,7 @@
         <v>49</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>42</v>
@@ -15531,17 +14964,11 @@
       <c r="AT94" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AU94" s="6">
-        <v>4</v>
-      </c>
-      <c r="AV94" s="6" t="s">
+      <c r="AU94" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW94" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -15549,7 +14976,7 @@
         <v>50</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>42</v>
@@ -15680,17 +15107,11 @@
       <c r="AT95" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU95" s="6">
-        <v>1</v>
-      </c>
-      <c r="AV95" s="6" t="s">
+      <c r="AU95" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW95" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -15698,7 +15119,7 @@
         <v>50</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>42</v>
@@ -15829,17 +15250,11 @@
       <c r="AT96" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU96" s="6">
-        <v>1</v>
-      </c>
-      <c r="AV96" s="6" t="s">
+      <c r="AU96" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW96" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -15847,7 +15262,7 @@
         <v>36</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>42</v>
@@ -15978,17 +15393,11 @@
       <c r="AT97" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU97" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV97" s="6" t="s">
+      <c r="AU97" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW97" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -15996,7 +15405,7 @@
         <v>36</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>42</v>
@@ -16127,17 +15536,11 @@
       <c r="AT98" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AU98" s="6">
-        <v>5</v>
-      </c>
-      <c r="AV98" s="6" t="s">
+      <c r="AU98" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AW98" s="6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -16276,17 +15679,11 @@
       <c r="AT99" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU99" s="6">
-        <v>1</v>
-      </c>
-      <c r="AV99" s="6" t="s">
+      <c r="AU99" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW99" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -16425,17 +15822,11 @@
       <c r="AT100" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU100" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV100" s="6" t="s">
+      <c r="AU100" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW100" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -16563,7 +15954,7 @@
         <v>14</v>
       </c>
       <c r="AQ101" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AR101" s="6" t="s">
         <v>24</v>
@@ -16574,17 +15965,11 @@
       <c r="AT101" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU101" s="6">
-        <v>1</v>
-      </c>
-      <c r="AV101" s="6" t="s">
+      <c r="AU101" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW101" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
         <v>103</v>
       </c>
@@ -16723,17 +16108,11 @@
       <c r="AT102" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU102" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV102" s="6" t="s">
+      <c r="AU102" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW102" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
         <v>104</v>
       </c>
@@ -16872,22 +16251,16 @@
       <c r="AT103" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU103" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV103" s="6" t="s">
+      <c r="AU103" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW103" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
         <v>109</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>25</v>
@@ -17021,22 +16394,16 @@
       <c r="AT104" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU104" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV104" s="6" t="s">
+      <c r="AU104" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW104" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
         <v>110</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>25</v>
@@ -17170,22 +16537,16 @@
       <c r="AT105" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU105" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV105" s="6" t="s">
+      <c r="AU105" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW105" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
         <v>111</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>25</v>
@@ -17319,22 +16680,16 @@
       <c r="AT106" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU106" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV106" s="6" t="s">
+      <c r="AU106" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW106" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
         <v>115</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>19</v>
@@ -17460,7 +16815,7 @@
         <v>2.0073529411764705E-2</v>
       </c>
       <c r="AR107" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS107" s="6" t="s">
         <v>96</v>
@@ -17468,22 +16823,16 @@
       <c r="AT107" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU107" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV107" s="6" t="s">
+      <c r="AU107" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW107" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
         <v>116</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>19</v>
@@ -17609,7 +16958,7 @@
         <v>1.8014705882352936E-2</v>
       </c>
       <c r="AR108" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS108" s="6" t="s">
         <v>96</v>
@@ -17617,22 +16966,16 @@
       <c r="AT108" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU108" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV108" s="6" t="s">
+      <c r="AU108" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW108" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
         <v>117</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>19</v>
@@ -17758,7 +17101,7 @@
         <v>1.4926470588235291E-2</v>
       </c>
       <c r="AR109" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS109" s="6" t="s">
         <v>96</v>
@@ -17766,17 +17109,11 @@
       <c r="AT109" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AU109" s="6">
-        <v>3</v>
-      </c>
-      <c r="AV109" s="6" t="s">
+      <c r="AU109" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW109" s="6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <v>118</v>
       </c>
@@ -17915,17 +17252,11 @@
       <c r="AT110" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU110" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV110" s="6" t="s">
+      <c r="AU110" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW110" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
         <v>119</v>
       </c>
@@ -18064,17 +17395,11 @@
       <c r="AT111" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU111" s="6">
-        <v>2</v>
-      </c>
-      <c r="AV111" s="6" t="s">
+      <c r="AU111" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AW111" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.45">
       <c r="AF112" s="13"/>
       <c r="AN112" s="14"/>
       <c r="AO112" s="13"/>
